--- a/output.xlsx
+++ b/output.xlsx
@@ -83,24 +83,24 @@
     <t>Tong so cau</t>
   </si>
   <si>
+    <t>1123</t>
+  </si>
+  <si>
     <t>1211</t>
   </si>
   <si>
     <t>0003</t>
   </si>
   <si>
-    <t>1123</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -356,34 +356,34 @@
     <t>Diem (%)</t>
   </si>
   <si>
+    <t>1913212</t>
+  </si>
+  <si>
+    <t>1918220</t>
+  </si>
+  <si>
+    <t>1912234</t>
+  </si>
+  <si>
+    <t>1812345</t>
+  </si>
+  <si>
     <t>1911236</t>
   </si>
   <si>
-    <t>1912234</t>
-  </si>
-  <si>
-    <t>1812345</t>
-  </si>
-  <si>
-    <t>1918220</t>
-  </si>
-  <si>
     <t>1925294</t>
   </si>
   <si>
-    <t>1913212</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>85.0%</t>
+  </si>
+  <si>
+    <t>95.0%</t>
+  </si>
+  <si>
     <t>90.0%</t>
-  </si>
-  <si>
-    <t>95.0%</t>
-  </si>
-  <si>
-    <t>85.0%</t>
   </si>
 </sst>
 </file>
@@ -829,52 +829,52 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
         <v>25</v>
@@ -891,61 +891,61 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
         <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V3">
         <v>20</v>
@@ -965,55 +965,55 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
       <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
         <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
       </c>
       <c r="V4">
         <v>20</v>
@@ -1363,52 +1363,52 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V2" t="s">
         <v>25</v>
@@ -1654,7 +1654,7 @@
         <v>119</v>
       </c>
       <c r="CY2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CZ2" t="s">
         <v>120</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="3" spans="1:104">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1671,58 +1671,58 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="R3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V3" t="s">
         <v>25</v>
@@ -1968,7 +1968,7 @@
         <v>119</v>
       </c>
       <c r="CY3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CZ3" t="s">
         <v>120</v>
@@ -1976,22 +1976,22 @@
     </row>
     <row r="4" spans="1:104">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -2000,28 +2000,28 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
         <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
         <v>25</v>
@@ -2030,10 +2030,10 @@
         <v>25</v>
       </c>
       <c r="S4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U4" t="s">
         <v>29</v>
@@ -2290,19 +2290,19 @@
     </row>
     <row r="5" spans="1:104">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2314,7 +2314,7 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -2323,10 +2323,10 @@
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
@@ -2341,16 +2341,16 @@
         <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S5" t="s">
         <v>25</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V5" t="s">
         <v>25</v>
@@ -2599,24 +2599,24 @@
         <v>17</v>
       </c>
       <c r="CZ5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:104">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2628,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -2637,10 +2637,10 @@
         <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -2655,16 +2655,16 @@
         <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" t="s">
         <v>25</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V6" t="s">
         <v>25</v>
@@ -2913,72 +2913,72 @@
         <v>17</v>
       </c>
       <c r="CZ6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:104">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
         <v>28</v>
       </c>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>26</v>
-      </c>
       <c r="U7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V7" t="s">
         <v>25</v>
@@ -3224,7 +3224,7 @@
         <v>119</v>
       </c>
       <c r="CY7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CZ7" t="s">
         <v>122</v>
@@ -3232,22 +3232,22 @@
     </row>
     <row r="8" spans="1:104">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -3256,28 +3256,28 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -3286,10 +3286,10 @@
         <v>25</v>
       </c>
       <c r="S8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U8" t="s">
         <v>29</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="9" spans="1:104">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -3555,61 +3555,61 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s">
         <v>27</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
       </c>
       <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
         <v>29</v>
       </c>
-      <c r="S9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" t="s">
-        <v>27</v>
-      </c>
       <c r="V9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W9" t="s">
         <v>119</v>
@@ -3852,78 +3852,78 @@
         <v>119</v>
       </c>
       <c r="CY9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CZ9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:104">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
         <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
         <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W10" t="s">
         <v>119</v>
@@ -4166,18 +4166,18 @@
         <v>119</v>
       </c>
       <c r="CY10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CZ10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:104">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -4189,19 +4189,19 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -4210,31 +4210,31 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" t="s">
-        <v>26</v>
-      </c>
       <c r="U11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V11" t="s">
         <v>25</v>
@@ -4480,7 +4480,7 @@
         <v>119</v>
       </c>
       <c r="CY11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CZ11" t="s">
         <v>122</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -83,24 +83,24 @@
     <t>Tong so cau</t>
   </si>
   <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
     <t>1123</t>
   </si>
   <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -356,34 +356,34 @@
     <t>Diem (%)</t>
   </si>
   <si>
+    <t>1911236</t>
+  </si>
+  <si>
+    <t>1812345</t>
+  </si>
+  <si>
+    <t>1918220</t>
+  </si>
+  <si>
     <t>1913212</t>
   </si>
   <si>
-    <t>1918220</t>
-  </si>
-  <si>
     <t>1912234</t>
   </si>
   <si>
-    <t>1812345</t>
-  </si>
-  <si>
-    <t>1911236</t>
-  </si>
-  <si>
     <t>1925294</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>90.0%</t>
+  </si>
+  <si>
     <t>85.0%</t>
   </si>
   <si>
     <t>95.0%</t>
-  </si>
-  <si>
-    <t>90.0%</t>
   </si>
 </sst>
 </file>
@@ -829,52 +829,52 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
         <v>25</v>
@@ -891,61 +891,61 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
       </c>
       <c r="V3">
         <v>20</v>
@@ -965,55 +965,55 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V4">
         <v>20</v>
@@ -1363,19 +1363,19 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1384,31 +1384,31 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V2" t="s">
         <v>25</v>
@@ -1654,7 +1654,7 @@
         <v>119</v>
       </c>
       <c r="CY2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CZ2" t="s">
         <v>120</v>
@@ -1671,58 +1671,58 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s">
         <v>27</v>
       </c>
       <c r="U3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V3" t="s">
         <v>25</v>
@@ -1971,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="CZ3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:104">
@@ -1985,61 +1985,61 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W4" t="s">
         <v>119</v>
@@ -2183,7 +2183,7 @@
         <v>119</v>
       </c>
       <c r="BR4" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="BS4" t="s">
         <v>119</v>
@@ -2282,7 +2282,7 @@
         <v>119</v>
       </c>
       <c r="CY4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CZ4" t="s">
         <v>121</v>
@@ -2290,19 +2290,19 @@
     </row>
     <row r="5" spans="1:104">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2314,7 +2314,7 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -2323,10 +2323,10 @@
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
@@ -2341,16 +2341,16 @@
         <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S5" t="s">
         <v>25</v>
       </c>
       <c r="T5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V5" t="s">
         <v>25</v>
@@ -2599,7 +2599,7 @@
         <v>17</v>
       </c>
       <c r="CZ5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:104">
@@ -2607,7 +2607,7 @@
         <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2619,52 +2619,52 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="Q6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="R6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" t="s">
-        <v>27</v>
-      </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T6" t="s">
         <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V6" t="s">
         <v>25</v>
@@ -2913,7 +2913,7 @@
         <v>17</v>
       </c>
       <c r="CZ6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:104">
@@ -2927,62 +2927,62 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" t="s">
-        <v>26</v>
-      </c>
-      <c r="V7" t="s">
-        <v>25</v>
-      </c>
       <c r="W7" t="s">
         <v>119</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>119</v>
       </c>
       <c r="BR7" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="BS7" t="s">
         <v>119</v>
@@ -3224,7 +3224,7 @@
         <v>119</v>
       </c>
       <c r="CY7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CZ7" t="s">
         <v>122</v>
@@ -3232,70 +3232,70 @@
     </row>
     <row r="8" spans="1:104">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" t="s">
         <v>28</v>
       </c>
-      <c r="R8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" t="s">
-        <v>27</v>
-      </c>
       <c r="U8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W8" t="s">
         <v>119</v>
@@ -3538,10 +3538,10 @@
         <v>119</v>
       </c>
       <c r="CY8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CZ8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:104">
@@ -3549,19 +3549,19 @@
         <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -3570,28 +3570,28 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
@@ -3600,10 +3600,10 @@
         <v>25</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U9" t="s">
         <v>29</v>
@@ -3855,75 +3855,75 @@
         <v>19</v>
       </c>
       <c r="CZ9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:104">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" t="s">
         <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s">
         <v>28</v>
       </c>
       <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
         <v>29</v>
       </c>
-      <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>26</v>
-      </c>
       <c r="V10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W10" t="s">
         <v>119</v>
@@ -4166,75 +4166,75 @@
         <v>119</v>
       </c>
       <c r="CY10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CZ10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:104">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="R11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>119</v>
-      </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
       <c r="S11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V11" t="s">
         <v>25</v>
@@ -4480,10 +4480,10 @@
         <v>119</v>
       </c>
       <c r="CY11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CZ11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
